--- a/lib/excel_templates/apqp_approved_report_modified.xlsx
+++ b/lib/excel_templates/apqp_approved_report_modified.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhn15\httpnodered_rubocop_autocorrect_20240129\lib\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhn15\Ruby On Rails\add_documents_controller_rubocop_autocorrect_20240331\lib\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8148"/>
   </bookViews>
   <sheets>
-    <sheet name="APQP総括・承認書" sheetId="2" r:id="rId1"/>
+    <sheet name="APQP総括・承認書" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53" count="53">
   <si>
     <t>計画書No.</t>
     <rPh sb="0" eb="3">
@@ -375,122 +375,122 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>項番：</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>#{?grr_no_1}
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">#{?grr_no_1}
 GRR</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>値：</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>#{?grr_1}</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>、</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>GRR</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>結果：</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
-      </rPr>
-      <t>#{?grr_result_1}
+        <sz val="12"/>
+      </rPr>
+      <t xml:space="preserve">#{?grr_result_1}
 ndc</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>値：</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>#{?ndc_1}</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>、</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>ndc</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>結果：</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>#{?ndc_result_1}</t>
     </r>
@@ -502,86 +502,86 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>：</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>#{?inspector_a_result_1}</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>、</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>#{?inspector_name_b_1}</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>：</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>#{?inspector_b_result_1}</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>、</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>#{?inspector_name_c_1}</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>：</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>#{?inspector_c_result_1}</t>
     </r>
@@ -593,103 +593,103 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>以上</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>(#{?cpk_satisfied_count}</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>個</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>)</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>、</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>Cpk1.67</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>以下</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>(#{?not_cpk_satisfied_count}</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>個</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>)</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
+        <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>、結果：</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
         <rFont val="Consolas"/>
         <family val="3"/>
+        <sz val="12"/>
       </rPr>
       <t>#{?cpk_result}</t>
     </r>
@@ -748,76 +748,73 @@
   <si>
     <t>☐</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>#{?inspector_name_a_2}：#{?inspector_a_result_2}、#{?inspector_name_b_2}：#{?inspector_b_result_2}、#{?inspector_name_c_2}：#{?inspector_c_result_2}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main">
+  <fonts count="9">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="7"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <b/>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
       <sz val="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -829,12 +826,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -974,6 +971,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1002,6 +1023,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1041,56 +1068,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -1098,6 +1167,48 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1119,115 +1230,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1235,7 +1256,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16" count="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1369,53 +1390,53 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="67000"/>
+                <a:satMod val="105000"/>
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:tint val="73000"/>
+                <a:satMod val="103000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="81000"/>
+                <a:satMod val="109000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
                 <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:shade val="100000"/>
                 <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:shade val="78000"/>
+                <a:satMod val="120000"/>
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1450,7 +1471,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1473,16 +1494,16 @@
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
+                <a:shade val="98000"/>
                 <a:satMod val="150000"/>
-                <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
+                <a:shade val="90000"/>
                 <a:satMod val="130000"/>
-                <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
@@ -1493,7 +1514,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1509,845 +1530,826 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A23"/>
+      <selection activeCell="N18" sqref="N18:U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="26" width="3.69921875" style="1" customWidth="1"/>
     <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:21" customFormat="false" ht="18.75" customHeight="1">
+      <c r="A1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A2" s="53" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+    </row>
+    <row r="2" spans="1:21" customFormat="false">
+      <c r="A2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="55"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A3" s="50" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="68"/>
+    </row>
+    <row r="3" spans="1:21" customFormat="false">
+      <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="30"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A4" s="50" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="58"/>
+    </row>
+    <row r="4" spans="1:21" customFormat="false">
+      <c r="A4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="49"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A5" s="25" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="61"/>
+    </row>
+    <row r="5" spans="1:21" customFormat="false">
+      <c r="A5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="34" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="36"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A6" s="25" t="s">
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="33"/>
+    </row>
+    <row r="6" spans="1:21" customFormat="false">
+      <c r="A6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="41"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A7" s="25" t="s">
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="71"/>
+    </row>
+    <row r="7" spans="1:21" customFormat="false">
+      <c r="A7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="33"/>
+    </row>
+    <row r="8" spans="1:21" customFormat="false">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="20" t="s">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35" t="s">
+      <c r="K8" s="32"/>
+      <c r="L8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="36"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="44" t="s">
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="33"/>
+    </row>
+    <row r="9" spans="1:21" customFormat="false">
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44" t="s">
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A10" s="60" t="s">
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+    </row>
+    <row r="10" spans="1:21" customFormat="false">
+      <c r="A10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="11"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.45">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="13"/>
+    </row>
+    <row r="11" spans="1:21" customFormat="false" ht="15.6">
       <c r="A11" s="5"/>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="12" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="13" t="s">
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="22"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.45">
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="50"/>
+    </row>
+    <row r="12" spans="1:21" customFormat="false" ht="15.6">
       <c r="A12" s="5"/>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="12" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="12" t="s">
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="22"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.45">
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="50"/>
+    </row>
+    <row r="13" spans="1:21" customFormat="false" ht="15.6">
       <c r="A13" s="5"/>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="12" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="12" t="s">
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="22"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.45">
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="50"/>
+    </row>
+    <row r="14" spans="1:21" customFormat="false" ht="15.6">
       <c r="A14" s="5"/>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="12" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="12" t="s">
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="22"/>
-    </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="50"/>
+    </row>
+    <row r="15" spans="1:21" customFormat="false" ht="15" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="14" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="14" t="s">
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="N15" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="24"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.45">
-      <c r="A16" s="60" t="s">
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="80"/>
+    </row>
+    <row r="16" spans="1:21" customFormat="false" ht="15.6">
+      <c r="A16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="12" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="12" t="s">
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="22"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="18"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.6" x14ac:dyDescent="0.45">
-      <c r="A18" s="60" t="s">
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="50"/>
+    </row>
+    <row r="17" spans="1:21" customFormat="false">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="20"/>
+    </row>
+    <row r="18" spans="1:21" customFormat="false" ht="15.6">
+      <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="13" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="12" t="s">
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="N18" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="22"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="18"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.6" x14ac:dyDescent="0.45">
-      <c r="A20" s="66" t="s">
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="50"/>
+    </row>
+    <row r="19" spans="1:21" customFormat="false">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="20"/>
+    </row>
+    <row r="20" spans="1:21" customFormat="false" ht="15.6">
+      <c r="A20" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="36"/>
-    </row>
-    <row r="21" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="33"/>
+    </row>
+    <row r="21" spans="1:21" customFormat="false" ht="45" customHeight="1">
       <c r="A21" s="81"/>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="69" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="71"/>
-    </row>
-    <row r="22" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="81"/>
-      <c r="B22" s="78" t="s">
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="42"/>
+    </row>
+    <row r="22" spans="1:21" customFormat="false" ht="32.25" customHeight="1">
+      <c r="A22" s="82"/>
+      <c r="B22" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="72" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="74"/>
-    </row>
-    <row r="23" spans="1:21" ht="15.6" x14ac:dyDescent="0.45">
-      <c r="A23" s="82"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="74"/>
-    </row>
-    <row r="24" spans="1:21" ht="15.6" x14ac:dyDescent="0.45">
-      <c r="A24" s="25" t="s">
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="45"/>
+    </row>
+    <row r="23" spans="1:21" customFormat="false" ht="15.6">
+      <c r="A23" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="75" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="14" t="s">
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R24" s="17" t="s">
+      <c r="R23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="18"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A27" s="25" t="s">
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="20"/>
+    </row>
+    <row r="26" spans="1:21" customFormat="false">
+      <c r="A26" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="27"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A28" s="25" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="29"/>
+    </row>
+    <row r="27" spans="1:21" customFormat="false">
+      <c r="A27" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="30"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A29" s="25" t="s">
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="58"/>
+    </row>
+    <row r="28" spans="1:21" customFormat="false">
+      <c r="A28" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="30"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A30" s="25" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="58"/>
+    </row>
+    <row r="29" spans="1:21" customFormat="false">
+      <c r="A29" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="33"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A31" s="25" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="78"/>
+    </row>
+    <row r="30" spans="1:21" customFormat="false">
+      <c r="A30" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="30"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="N20:U20"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="A16:E17"/>
-    <mergeCell ref="A18:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F21:U21"/>
-    <mergeCell ref="F22:U22"/>
-    <mergeCell ref="F24:P24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F23:U23"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="B15:E15"/>
+  <mergeCells count="59">
+    <mergeCell ref="N13:U13"/>
+    <mergeCell ref="N14:U14"/>
+    <mergeCell ref="N15:U15"/>
+    <mergeCell ref="N16:U16"/>
+    <mergeCell ref="N18:U18"/>
+    <mergeCell ref="A26:U26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D30:U30"/>
+    <mergeCell ref="D27:U27"/>
+    <mergeCell ref="D28:U28"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D29:U29"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="L8:U8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N11:U11"/>
+    <mergeCell ref="N12:U12"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:U9"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="B14:E14"/>
@@ -2364,31 +2366,24 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="D6:U6"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="L8:U8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N11:U11"/>
-    <mergeCell ref="N12:U12"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:U9"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A27:U27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D31:U31"/>
-    <mergeCell ref="D28:U28"/>
-    <mergeCell ref="D29:U29"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D30:U30"/>
-    <mergeCell ref="N13:U13"/>
-    <mergeCell ref="N14:U14"/>
-    <mergeCell ref="N15:U15"/>
-    <mergeCell ref="N16:U16"/>
-    <mergeCell ref="N18:U18"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="N20:U20"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="A16:E17"/>
+    <mergeCell ref="A18:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F21:U21"/>
+    <mergeCell ref="F22:U22"/>
+    <mergeCell ref="F23:P23"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lib/excel_templates/apqp_approved_report_modified.xlsx
+++ b/lib/excel_templates/apqp_approved_report_modified.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhn15\Ruby On Rails\add_documents_controller_rubocop_autocorrect_20240331\lib\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ruby On Rails\production_revise_20250101\lib\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49" count="49">
   <si>
     <t>計画書No.</t>
     <rPh sb="0" eb="3">
@@ -277,39 +277,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>製造プロセスフロー図</t>
-    <rPh sb="0" eb="2">
-      <t>セイゾウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>製品検査プロセスフロー図</t>
-    <rPh sb="0" eb="2">
-      <t>セイヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンサ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>引渡しプロセスフロー図</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキワタ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>不要</t>
     <rPh sb="0" eb="2">
       <t>フヨウ</t>
@@ -317,22 +284,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>#{?pf_sales_check}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>#{?pf_production_check}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>#{?pf_inspectoin_check}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>#{?pf_release_check}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>製造工程設計プロセスフロー図</t>
     <rPh sb="0" eb="2">
       <t>セイゾウ</t>
@@ -349,10 +300,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>#{?pf_process_design_check}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>☑</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -696,7 +643,66 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>作成済：HH-1016</t>
+    <t>製品検査・引渡しプロセスフロー図</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒキワタ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製造プロセスフロー図(プレス)</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製造プロセスフロー図(成形)</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#{?processflow_sales_check}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#{?processflow_design_check}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#{?processflow_stamping_check}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#{?processflow_mold_check}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#{?processflow_inspection_check}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成済：</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
     </rPh>
@@ -706,47 +712,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>作成済：HH-1015</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>作成済：HH-1017</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>作成済：HH-1018</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>作成済：HH-1019</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>☐</t>
+    <t>#{?stamping_standard_procedure_check}</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1001,7 +967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1047,9 +1013,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1092,17 +1055,113 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1122,6 +1181,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1148,108 +1219,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1531,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18:U18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1544,185 +1513,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" customFormat="false" ht="18.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
     </row>
     <row r="2" spans="1:21" customFormat="false">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="68"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="60"/>
     </row>
     <row r="3" spans="1:21" customFormat="false">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="58"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="31"/>
     </row>
     <row r="4" spans="1:21" customFormat="false">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="61"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="54"/>
     </row>
     <row r="5" spans="1:21" customFormat="false">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="62" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="33"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="41"/>
     </row>
     <row r="6" spans="1:21" customFormat="false">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="69" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="71"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="46"/>
     </row>
     <row r="7" spans="1:21" customFormat="false">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="62" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="33"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="41"/>
     </row>
     <row r="8" spans="1:21" customFormat="false">
       <c r="A8" s="2" t="s">
@@ -1731,69 +1700,69 @@
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32" t="s">
+      <c r="J8" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="33"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="41"/>
     </row>
     <row r="9" spans="1:21" customFormat="false">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="74" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74" t="s">
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
     </row>
     <row r="10" spans="1:21" customFormat="false">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
@@ -1813,546 +1782,560 @@
     </row>
     <row r="11" spans="1:21" customFormat="false" ht="15.6">
       <c r="A11" s="5"/>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="50"/>
+      <c r="N11" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="36"/>
     </row>
     <row r="12" spans="1:21" customFormat="false" ht="15.6">
       <c r="A12" s="5"/>
-      <c r="B12" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
+      <c r="B12" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="50"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="36"/>
       <c r="M12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="49" t="s">
+      <c r="N12" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="50"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="36"/>
     </row>
     <row r="13" spans="1:21" customFormat="false" ht="15.6">
       <c r="A13" s="5"/>
-      <c r="B13" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
+      <c r="B13" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="50"/>
+        <v>44</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
       <c r="M13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="49" t="s">
+      <c r="N13" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="50"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="36"/>
     </row>
     <row r="14" spans="1:21" customFormat="false" ht="15.6">
       <c r="A14" s="5"/>
-      <c r="B14" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
+        <v>45</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
       <c r="M14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="49" t="s">
+      <c r="N14" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="50"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="36"/>
     </row>
     <row r="15" spans="1:21" customFormat="false" ht="15" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="16" t="s">
+      <c r="B15" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="79" t="s">
+      <c r="N15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="80"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="38"/>
     </row>
     <row r="16" spans="1:21" customFormat="false" ht="15.6">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
       <c r="M16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="49" t="s">
+      <c r="N16" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="50"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="36"/>
     </row>
     <row r="17" spans="1:21" customFormat="false">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="20"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="19"/>
     </row>
     <row r="18" spans="1:21" customFormat="false" ht="15.6">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="30" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="31"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="49" t="s">
+      <c r="N18" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="50"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="36"/>
     </row>
     <row r="19" spans="1:21" customFormat="false">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="20"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="19"/>
     </row>
     <row r="20" spans="1:21" customFormat="false" ht="15.6">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="33"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="41"/>
     </row>
     <row r="21" spans="1:21" customFormat="false" ht="45" customHeight="1">
-      <c r="A21" s="81"/>
-      <c r="B21" s="22" t="s">
-        <v>42</v>
+      <c r="A21" s="73"/>
+      <c r="B21" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="42"/>
+      <c r="F21" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="77"/>
     </row>
     <row r="22" spans="1:21" customFormat="false" ht="32.25" customHeight="1">
-      <c r="A22" s="82"/>
-      <c r="B22" s="22" t="s">
-        <v>43</v>
+      <c r="A22" s="74"/>
+      <c r="B22" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="45"/>
-    </row>
-    <row r="23" spans="1:21" customFormat="false" ht="15.6">
-      <c r="A23" s="27" t="s">
+      <c r="F22" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="80"/>
+    </row>
+    <row r="23" spans="1:21" customFormat="false">
+      <c r="A23" s="74"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="78" t="str">
+        <v>#{?inspector_name_a_2}：#{?inspector_a_result_2}、#{?inspector_name_b_2}：#{?inspector_b_result_2}、#{?inspector_name_c_2}：#{?inspector_c_result_2}</v>
+      </c>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="80"/>
+    </row>
+    <row r="24" spans="1:21" customFormat="false" ht="15.6">
+      <c r="A24" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="16" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="R23" s="19" t="s">
+      <c r="R24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="20"/>
-    </row>
-    <row r="26" spans="1:21" customFormat="false">
-      <c r="A26" s="27" t="s">
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="19"/>
+    </row>
+    <row r="27" spans="1:21" customFormat="false">
+      <c r="A27" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="29"/>
-    </row>
-    <row r="27" spans="1:21" customFormat="false">
-      <c r="A27" s="27" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="28"/>
+    </row>
+    <row r="28" spans="1:21" customFormat="false">
+      <c r="A28" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="58"/>
-    </row>
-    <row r="28" spans="1:21" customFormat="false">
-      <c r="A28" s="27" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="31"/>
+    </row>
+    <row r="29" spans="1:21" customFormat="false">
+      <c r="A29" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="58"/>
-    </row>
-    <row r="29" spans="1:21" customFormat="false">
-      <c r="A29" s="27" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="31"/>
+    </row>
+    <row r="30" spans="1:21" customFormat="false">
+      <c r="A30" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="77"/>
-      <c r="T29" s="77"/>
-      <c r="U29" s="78"/>
-    </row>
-    <row r="30" spans="1:21" customFormat="false">
-      <c r="A30" s="27" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="34"/>
+    </row>
+    <row r="31" spans="1:21" customFormat="false">
+      <c r="A31" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="58"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="N13:U13"/>
-    <mergeCell ref="N14:U14"/>
-    <mergeCell ref="N15:U15"/>
-    <mergeCell ref="N16:U16"/>
-    <mergeCell ref="N18:U18"/>
-    <mergeCell ref="A26:U26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D30:U30"/>
-    <mergeCell ref="D27:U27"/>
-    <mergeCell ref="D28:U28"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D29:U29"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="L8:U8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N11:U11"/>
-    <mergeCell ref="N12:U12"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:U9"/>
-    <mergeCell ref="A9:E9"/>
+  <mergeCells count="60">
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:U21"/>
+    <mergeCell ref="F22:U22"/>
+    <mergeCell ref="F24:P24"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="G15:L15"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="A16:E17"/>
+    <mergeCell ref="A18:E19"/>
+    <mergeCell ref="A20:E20"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="D3:U3"/>
     <mergeCell ref="D4:U4"/>
@@ -2366,24 +2349,36 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="D6:U6"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="L8:U8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N11:U11"/>
+    <mergeCell ref="N12:U12"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:U9"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A27:U27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D31:U31"/>
+    <mergeCell ref="D28:U28"/>
+    <mergeCell ref="D29:U29"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D30:U30"/>
+    <mergeCell ref="N13:U13"/>
+    <mergeCell ref="N14:U14"/>
+    <mergeCell ref="N15:U15"/>
+    <mergeCell ref="N16:U16"/>
+    <mergeCell ref="N18:U18"/>
     <mergeCell ref="N20:U20"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="A16:E17"/>
-    <mergeCell ref="A18:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F21:U21"/>
-    <mergeCell ref="F22:U22"/>
-    <mergeCell ref="F23:P23"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="B15:E15"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F23:U23"/>
+    <mergeCell ref="B22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
